--- a/Translation Corpus.xlsx
+++ b/Translation Corpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\sub topic 1 - paraphrasing\translation corpus\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4862EF-973B-4239-9477-5CF780EF465A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C460595-A7C2-429C-A35B-3D9163F86009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complex - Stage 1" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,32 @@
     <sheet name="Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'human interprettion for testing'!$A$1:$F$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Simplification - Stage 2'!$A$1:$I$101</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Results!$A$4:$A$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Results!$C$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Results!$A$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Results!$A$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Results!$A$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Results!$A$7</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Results!$A$8</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Results!$C$3:$D$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Results!$C$4:$D$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Results!$C$5:$D$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Results!$C$6:$D$6</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Results!$C$7:$D$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Results!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Results!$C$8:$D$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Results!$D$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Results!$D$4:$D$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Results!$A$4:$A$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Results!$C$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Results!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Results!$D$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Results!$D$4:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1592">
   <si>
     <t>Keywords</t>
   </si>
@@ -2094,9 +2117,6 @@
     <t>Lipstick, as a product intended for topical use, is ingested only in very small quantities.</t>
   </si>
   <si>
-    <t>Lipstick, as a product intended for direct external use, is take into the body in small quatanties</t>
-  </si>
-  <si>
     <t>Lipstick, a product used for applying on skin, is absorbed in very small quantities.</t>
   </si>
   <si>
@@ -2124,9 +2144,6 @@
     <t>A few of the villagers came behind, wearing mourning clothes</t>
   </si>
   <si>
-    <t>A few of villagers came behind,covered in mourning robes.</t>
-  </si>
-  <si>
     <t>New millionaires like making extravagant purchases or risky deals with friends.</t>
   </si>
   <si>
@@ -2166,9 +2183,6 @@
     <t>An air of intense anticipation pervaded.</t>
   </si>
   <si>
-    <t>An air of intense expectation spreaded</t>
-  </si>
-  <si>
     <t>An air of high expectation was filled.</t>
   </si>
   <si>
@@ -2244,9 +2258,6 @@
     <t>Religious movements periodically declared the carols as sinful.</t>
   </si>
   <si>
-    <t>Religious movements timels declared the carols as immoral</t>
-  </si>
-  <si>
     <t>Religious movements occasionally declared the carols as unholy.</t>
   </si>
   <si>
@@ -2415,12 +2426,6 @@
     <t>If anyone repeal the law, they would be taking away benefits thateveryone are already getting.</t>
   </si>
   <si>
-    <t>if the law is revoked then all the benefits thateveryone are already getting will be taken away</t>
-  </si>
-  <si>
-    <t>If anyone breaks the law, they would be taking away benefits thateveryone are already getting.</t>
-  </si>
-  <si>
     <t>You were ever allowed to forsake your native land.</t>
   </si>
   <si>
@@ -2442,9 +2447,6 @@
     <t>Intense focus may be help with extensive calculations.</t>
   </si>
   <si>
-    <t>Strong focus may be of help with large calculatipns</t>
-  </si>
-  <si>
     <t>Extreme focus may be help with large calculations.</t>
   </si>
   <si>
@@ -2460,9 +2462,6 @@
     <t>Intensely mortified at this humiliation, the king shot himself.</t>
   </si>
   <si>
-    <t>Embarassed at his humiliation, the king shot himself.</t>
-  </si>
-  <si>
     <t>Extremely ashamed at this humiliation, the king shot himself.</t>
   </si>
   <si>
@@ -2499,12 +2498,6 @@
     <t>The officials expressed concern about reigniting longstanding [Mexican] concerns.</t>
   </si>
   <si>
-    <t>The officials expressed concern about reoccuring longstanding [Mexican] concerns.</t>
-  </si>
-  <si>
-    <t>The offcials expressed concern about restarting longstanding [Mexican] concerns.</t>
-  </si>
-  <si>
     <t>Mother, you see, is a very pious woman.</t>
   </si>
   <si>
@@ -2517,9 +2510,6 @@
     <t>Focusing on the details of the policies that aren’t working helped to improvise it.</t>
   </si>
   <si>
-    <t>Focusing on the dteails of policies that aren't working helped to make it better</t>
-  </si>
-  <si>
     <t>Focusing on the details of the policies that aren’t working helped to compose it.</t>
   </si>
   <si>
@@ -2583,9 +2573,6 @@
     <t>Some exalt themselves by anonymously posting their own reviews.</t>
   </si>
   <si>
-    <t>Some honor themselves by anonymously posting their own reviews</t>
-  </si>
-  <si>
     <t>Some praise themselves by anonymously posting their own reviews.</t>
   </si>
   <si>
@@ -2625,12 +2612,6 @@
     <t>The [United States] Army developed a comprehensive plan to increase military effectivenes.</t>
   </si>
   <si>
-    <t>The [United States] Army developed an extensive plan to increase military effectivenes.</t>
-  </si>
-  <si>
-    <t>The [United States] Army developed a full plan to increase military effectivenes.</t>
-  </si>
-  <si>
     <t>The actor was candid about his own difficult childhood.</t>
   </si>
   <si>
@@ -2646,9 +2627,6 @@
     <t>His success was destroyed as a result of his bad behaviour</t>
   </si>
   <si>
-    <t>The result of bad behavior destroyed his success.</t>
-  </si>
-  <si>
     <t>The government decoded to cut down on infrastructure spending.</t>
   </si>
   <si>
@@ -2691,9 +2669,6 @@
     <t>The ememy lowered their weapons and called for peace.</t>
   </si>
   <si>
-    <t>The enemy dropped their wepaons and called for peace</t>
-  </si>
-  <si>
     <t>The enemy gave up.</t>
   </si>
   <si>
@@ -2745,9 +2720,6 @@
     <t>The greater majority of enterprises treat their employees with understanding</t>
   </si>
   <si>
-    <t>The  vast majority of enterprizes treat their employees with care.</t>
-  </si>
-  <si>
     <t>The chief claimed that he was fired for raising concerns about the company's accounting practices.</t>
   </si>
   <si>
@@ -2772,9 +2744,6 @@
     <t>There are vexing problems slowing the growth of technology.</t>
   </si>
   <si>
-    <t>There are frustating problems slowing the growth of technology.</t>
-  </si>
-  <si>
     <t>There are difficult problems slowing the growth of technology.</t>
   </si>
   <si>
@@ -2793,9 +2762,6 @@
     <t>there are lot of humorous contents on [Russian] television.</t>
   </si>
   <si>
-    <t>[Russiam] TV is funny</t>
-  </si>
-  <si>
     <t>Therefore he made up his mind to agree to his uncle's desire.</t>
   </si>
   <si>
@@ -2811,9 +2777,6 @@
     <t>This refinement appears in his works, which are full of artistic grace.</t>
   </si>
   <si>
-    <t>This polishing appears in hiw works, which are full of artistic charm</t>
-  </si>
-  <si>
     <t>This fineness appears in his works, which are full of creative beauty.</t>
   </si>
   <si>
@@ -2844,9 +2807,6 @@
     <t>The honoured building looks almost decomposable.</t>
   </si>
   <si>
-    <t>Two hostile values may stick togethere in the same object.</t>
-  </si>
-  <si>
     <t>Two antagonistic values may hold together in the same object.</t>
   </si>
   <si>
@@ -4141,6 +4101,738 @@
   </si>
   <si>
     <t>Original</t>
+  </si>
+  <si>
+    <t>[Foster] was a very humble gentleman.</t>
+  </si>
+  <si>
+    <t>[Sarkozy] has become more careful and guarded about his personal life</t>
+  </si>
+  <si>
+    <t>Some basic simplicity was noticeable</t>
+  </si>
+  <si>
+    <t>A diligent lady servant served chicken</t>
+  </si>
+  <si>
+    <t>some of the villagers came behind, clothed in mourning cloak</t>
+  </si>
+  <si>
+    <t>New millionaires like spending heavily and make unsafe deals with friends</t>
+  </si>
+  <si>
+    <t>The sorrow and pain reduces along with time</t>
+  </si>
+  <si>
+    <t>the weather is so good</t>
+  </si>
+  <si>
+    <t>We initially tried to resist President [Karzai] moves but agreed in the end.</t>
+  </si>
+  <si>
+    <t>the company earned millions through online betting game</t>
+  </si>
+  <si>
+    <t>The issues of privacy around mobile computing are becoming difficult.</t>
+  </si>
+  <si>
+    <t>There is no simple solution</t>
+  </si>
+  <si>
+    <t>some medical treatments are out of the reach for poor communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But despite achieving world titles, [Olympic] gold was avoiding him. </t>
+  </si>
+  <si>
+    <t>most people did not want to have the legislation passed because of its bad effects</t>
+  </si>
+  <si>
+    <t>he decided to lawfully oppose the claims against him</t>
+  </si>
+  <si>
+    <t>from time to time, Religious movements announced the folk songs as sinful</t>
+  </si>
+  <si>
+    <t>Stop fighting in public, said the gentleman</t>
+  </si>
+  <si>
+    <t>Company officials said that team will be on hold until the is accepted</t>
+  </si>
+  <si>
+    <t>The lockdown created mental problems in people</t>
+  </si>
+  <si>
+    <t>For a long time, he had desired for rich and famous way of living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For me most of [English ] literature is conceptual </t>
+  </si>
+  <si>
+    <t>Do you mean, I was selfish to those people</t>
+  </si>
+  <si>
+    <t>She ran away happily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He cannot cross the street without being surrounded by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In all seasons, he was the director and actor of the plays. </t>
+  </si>
+  <si>
+    <t>He smoothly made his usual practice of passing knowledge on to open teammates</t>
+  </si>
+  <si>
+    <t>He asked for minimal damages of one dollar from every accused person</t>
+  </si>
+  <si>
+    <t>he saw the moths with spite, their flapping wings blowing his bitterness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stimulated by her wife everyday, he murdered her </t>
+  </si>
+  <si>
+    <t>his arguments were valuable and fundamentally sound like Einstein</t>
+  </si>
+  <si>
+    <t>his campaign also issued a press release attacking other competitors</t>
+  </si>
+  <si>
+    <t>His own share in the earnings was around a hundred thousand dollars</t>
+  </si>
+  <si>
+    <t>His two companions easily approved.</t>
+  </si>
+  <si>
+    <t>Emotional people can't take tough decisions</t>
+  </si>
+  <si>
+    <t>there is no short cut to success, and someone who works extremely hard becomes successful.</t>
+  </si>
+  <si>
+    <t>If anyone revoke the law, they would be taking away benefits that everyone are already getting.</t>
+  </si>
+  <si>
+    <t>You were ever allowed to give up your home land.</t>
+  </si>
+  <si>
+    <t>Calling a famous writer by his first name looked rude</t>
+  </si>
+  <si>
+    <t>High focus may be help with huge calculations</t>
+  </si>
+  <si>
+    <t>The story about a young man could be cute and unrealistic.</t>
+  </si>
+  <si>
+    <t>highly ashamed at this humiliation, the king shot himself</t>
+  </si>
+  <si>
+    <t>Long before writing and books were in common use, proverbs were the main mode of communicating instruction.</t>
+  </si>
+  <si>
+    <t>A lot of viewers did not like the intense play</t>
+  </si>
+  <si>
+    <t>Heating oil could become less available in the Northeast this winter.</t>
+  </si>
+  <si>
+    <t>The officials expressed concern about bringing longstanding [Mexican] concerns again.</t>
+  </si>
+  <si>
+    <t>Mother, you see, is a very deeply religious woman.</t>
+  </si>
+  <si>
+    <t>Focusing on the details of the policies that aren’t working helped to make it better</t>
+  </si>
+  <si>
+    <t>Nobody is really in charge, and decisions are made on impulse and sudden desire</t>
+  </si>
+  <si>
+    <t>one opposing group declared it would begin an armed struggle</t>
+  </si>
+  <si>
+    <t>she belonged to the highest position in the profession hierarchy.</t>
+  </si>
+  <si>
+    <t>She turned and looked at him with regret and sadness in her eyes</t>
+  </si>
+  <si>
+    <t>Singing and Dancing reflects the culture</t>
+  </si>
+  <si>
+    <t>Some praise themselves by secretly posting their own reviews</t>
+  </si>
+  <si>
+    <t>the research was far off his understanding</t>
+  </si>
+  <si>
+    <t>the father purchased a twenty-five acres of land for farming</t>
+  </si>
+  <si>
+    <t>Actual success comes to a person who can do many different types of work.</t>
+  </si>
+  <si>
+    <t>the effect of everything closed for six weeks would shake the economy</t>
+  </si>
+  <si>
+    <t>The [United States] Army made a full proof plan to increase military power.</t>
+  </si>
+  <si>
+    <t>the government decided to decrease the expenditure on infrastructure</t>
+  </si>
+  <si>
+    <t>The requests were made in a respectful and humble way</t>
+  </si>
+  <si>
+    <t>The group members worked in agreement on the bill, and it  passed in the end.</t>
+  </si>
+  <si>
+    <t>Johny woke up and started crying out of fear in the midnight</t>
+  </si>
+  <si>
+    <t>the school is open to scholarships and exhibitions</t>
+  </si>
+  <si>
+    <t>The enemy dropped their weapons and called for peace</t>
+  </si>
+  <si>
+    <t>The only rule of the law of nature is to be strong</t>
+  </si>
+  <si>
+    <t>The army soldiers have historically been saved from civilian courts</t>
+  </si>
+  <si>
+    <t>The tiny stain on the document could not be seen to the eye</t>
+  </si>
+  <si>
+    <t>Some amusing characters in his book are very fascinating</t>
+  </si>
+  <si>
+    <t>As usual, the prisoners took off their clothes and went to bed</t>
+  </si>
+  <si>
+    <t>Most of the companies act towards their employees with empathy</t>
+  </si>
+  <si>
+    <t>the chief declared that he was thrown out of the job for showing worry about company's accounting operations</t>
+  </si>
+  <si>
+    <t>He wanted strikers to leave the grounds or be removed forcefully</t>
+  </si>
+  <si>
+    <t>Then a match was lighted and fire applied</t>
+  </si>
+  <si>
+    <t>There are complicated problems slowing the growth of technology</t>
+  </si>
+  <si>
+    <t>There has been a great deal said on women's right to vote</t>
+  </si>
+  <si>
+    <t>Therefore he decided to accept his uncle's wish</t>
+  </si>
+  <si>
+    <t>They may not be wishing to hurry back into the same issues</t>
+  </si>
+  <si>
+    <t>This finishing appears in his works, which are full of creative charm</t>
+  </si>
+  <si>
+    <t>the discriminating society is always against free thinkers</t>
+  </si>
+  <si>
+    <t>a local person who often hired local youths, was being questioned</t>
+  </si>
+  <si>
+    <t>the ancient building seems to be almost collapsing</t>
+  </si>
+  <si>
+    <t>Two opposing values may stick together in the same object</t>
+  </si>
+  <si>
+    <t>Totally worried, he ran up and down the side of the river</t>
+  </si>
+  <si>
+    <t>holiday homes usually have pure sand and perfectly clean waters</t>
+  </si>
+  <si>
+    <t>After an awkward silence, she looked at him and smiled naughtily</t>
+  </si>
+  <si>
+    <t>we went to a cheap bar in [Pune]</t>
+  </si>
+  <si>
+    <t>We went to a shady bar in [Pune]</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>[foster] is a good guy</t>
+  </si>
+  <si>
+    <t>[Sarkozy] is more careful for his private life</t>
+  </si>
+  <si>
+    <t>Lipstick, can be go in body in small quantity</t>
+  </si>
+  <si>
+    <t>that is simple</t>
+  </si>
+  <si>
+    <t>villagers came wearing black dress to mourn</t>
+  </si>
+  <si>
+    <t>millionaires spend money recklessly</t>
+  </si>
+  <si>
+    <t>time is a healer</t>
+  </si>
+  <si>
+    <t>it’s a very pleasant day</t>
+  </si>
+  <si>
+    <t>There was no choice but to accept</t>
+  </si>
+  <si>
+    <t>I could smell it everywhere in air</t>
+  </si>
+  <si>
+    <t>online gambling company is making lots of money</t>
+  </si>
+  <si>
+    <t>armed rebels have collected to join the fight in recent time</t>
+  </si>
+  <si>
+    <t>there can be security concern with mobile computing</t>
+  </si>
+  <si>
+    <t>there is no easy solution</t>
+  </si>
+  <si>
+    <t>some medication are very expensive to afford for poor</t>
+  </si>
+  <si>
+    <t>He promised to go to court to prove himself innocent</t>
+  </si>
+  <si>
+    <t>Religious thought  periodically declared the carols as sinful.</t>
+  </si>
+  <si>
+    <t>We should not fight in public</t>
+  </si>
+  <si>
+    <t>company officials decided to keep a team in standby till the agreement is corrected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lockdown causing problem in humans </t>
+  </si>
+  <si>
+    <t>He always dreamt to be rich and famous</t>
+  </si>
+  <si>
+    <t>Do you mean, I did not behave good with those people</t>
+  </si>
+  <si>
+    <t>great employee perform better with more freedom</t>
+  </si>
+  <si>
+    <t>She went away rejoicing</t>
+  </si>
+  <si>
+    <t>He cannot walk down the street without being captured by paparazzi</t>
+  </si>
+  <si>
+    <t>He directed and acts in plays in all seasons</t>
+  </si>
+  <si>
+    <t>He just charged one dollar fee from every defendant</t>
+  </si>
+  <si>
+    <t>His wife prompted him very often which made him kill her</t>
+  </si>
+  <si>
+    <t>he owned 100,1000 dollars in the proceeds</t>
+  </si>
+  <si>
+    <t>his two friends easily agreed</t>
+  </si>
+  <si>
+    <t>emotional people are bad in taking decisions</t>
+  </si>
+  <si>
+    <t>Hard work can make you successful, there is no shortcut</t>
+  </si>
+  <si>
+    <t>if anyone revoke the law, the benefits would be taken off from those who are already availing it</t>
+  </si>
+  <si>
+    <t>calling a writer with first name seems to be rude</t>
+  </si>
+  <si>
+    <t>Many viewers did not like serious drams</t>
+  </si>
+  <si>
+    <t>Mother is very religious</t>
+  </si>
+  <si>
+    <t>focusing on sections of policies that were not working, helped in making policies better</t>
+  </si>
+  <si>
+    <t>an honest mechanic can be snob, we cannot be blame him for that.</t>
+  </si>
+  <si>
+    <t>she was high in position in her profession.</t>
+  </si>
+  <si>
+    <t>she turned toward him, with longing in her eyes</t>
+  </si>
+  <si>
+    <t>the research was too complicated</t>
+  </si>
+  <si>
+    <t>father bought 25 acre of land</t>
+  </si>
+  <si>
+    <t>Its very important to be jack of all trades to be successful these days.</t>
+  </si>
+  <si>
+    <t>The economy would fall with 6 week lockdown</t>
+  </si>
+  <si>
+    <t>the government decided to cut down on infra spending</t>
+  </si>
+  <si>
+    <t>the enemy called for peace</t>
+  </si>
+  <si>
+    <t>law of nature says survival of the fittest.</t>
+  </si>
+  <si>
+    <t>military is always protected from civil court</t>
+  </si>
+  <si>
+    <t>there were stains on the document which were not visible to the bare eyes.</t>
+  </si>
+  <si>
+    <t>Then a match was kindled and fire applied</t>
+  </si>
+  <si>
+    <t>Women should be allowed to vote and there were many protests for this</t>
+  </si>
+  <si>
+    <t>Therefore he made up his mind to request to his uncle's desire.</t>
+  </si>
+  <si>
+    <t>they prayed that they may not face the same problems</t>
+  </si>
+  <si>
+    <t>Nobody cares about free thinkers</t>
+  </si>
+  <si>
+    <t>A local person who very often hired local youngsters was investigated</t>
+  </si>
+  <si>
+    <t>he was in bad state and in that state, he went up and down the bank</t>
+  </si>
+  <si>
+    <t>She looked at him with a naughty smile after a long awkward</t>
+  </si>
+  <si>
+    <t>We went to some dingy bar in Pune</t>
+  </si>
+  <si>
+    <t>He worshiped me like a being who came down from an upper world.</t>
+  </si>
+  <si>
+    <t>He made a nice speech to talk to his team</t>
+  </si>
+  <si>
+    <t>he worshiped me like a person from higher end.</t>
+  </si>
+  <si>
+    <t>He took me as godman</t>
+  </si>
+  <si>
+    <t>his notification to press said bad about his rivals</t>
+  </si>
+  <si>
+    <t>you were given permission to leave your country</t>
+  </si>
+  <si>
+    <t>Good focus may help to make calculations easy</t>
+  </si>
+  <si>
+    <t>the story about young person was nice</t>
+  </si>
+  <si>
+    <t>king killed himself after being humiliated</t>
+  </si>
+  <si>
+    <t>In olden times kids were taught with mantras</t>
+  </si>
+  <si>
+    <t>Oil may become more difficult to find in winter</t>
+  </si>
+  <si>
+    <t>There was a concern raised on [Mexico] influence</t>
+  </si>
+  <si>
+    <t>One of the groups decided to revolt violently</t>
+  </si>
+  <si>
+    <t>Traditions are carried over by song and dance</t>
+  </si>
+  <si>
+    <t>there are some people who want to get into limelight by posting about themselves</t>
+  </si>
+  <si>
+    <t>the group followed the procedures and got the law passed</t>
+  </si>
+  <si>
+    <t>[Johny] got scared in night and got out of the bed</t>
+  </si>
+  <si>
+    <t>the school is generous with funding for poor</t>
+  </si>
+  <si>
+    <t>not sure what could make the strange husband so funny?</t>
+  </si>
+  <si>
+    <t>Lipstick, as a product intended for direct external use, is take into the body in small quantities</t>
+  </si>
+  <si>
+    <t>Lipstick, as a product is meant for topical use, is used only on very small amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hostess gave us chicken to eat</t>
+  </si>
+  <si>
+    <t>A few of villagers came behind, covered in mourning robes.</t>
+  </si>
+  <si>
+    <t>new millionaires like shopping or risky deals with friends.</t>
+  </si>
+  <si>
+    <t>An air of intense expectation speeded</t>
+  </si>
+  <si>
+    <t>An air of high expectation speeded</t>
+  </si>
+  <si>
+    <t>most places in India are very beautiful</t>
+  </si>
+  <si>
+    <t>Most places in [India] are highly visually attractive</t>
+  </si>
+  <si>
+    <t>he had many world titles except Olympic</t>
+  </si>
+  <si>
+    <t>people did not wanted to have new rule as it had bad consequence</t>
+  </si>
+  <si>
+    <t>religious groups consider Christmas songs as sin.</t>
+  </si>
+  <si>
+    <t>Religious movements times declared the carols as immoral</t>
+  </si>
+  <si>
+    <t>The lockdown created psychological issues in people.</t>
+  </si>
+  <si>
+    <t>English literature is superior</t>
+  </si>
+  <si>
+    <t>he looked normal damages each suspect.</t>
+  </si>
+  <si>
+    <t>he saw the months with disgust flying their hurry to show his bad.</t>
+  </si>
+  <si>
+    <t>he saw the moth with anger, their flutter wings giving way to his resentment</t>
+  </si>
+  <si>
+    <t>He killed his wife after being provoked by her every single day.</t>
+  </si>
+  <si>
+    <t>he killed his wide after [provoked] by it daily.</t>
+  </si>
+  <si>
+    <t>his discussion as [Einstein] were [qualitative] and value.</t>
+  </si>
+  <si>
+    <t>Einstein had qualitative and philosophical arguments</t>
+  </si>
+  <si>
+    <t>If anyone repeal the law, they would be taking away benefits that everyone are already getting.</t>
+  </si>
+  <si>
+    <t>if the law is revoked then all the benefits that everyone are already getting will be taken away</t>
+  </si>
+  <si>
+    <t>If anyone breaks the law, they would be taking away benefits that everyone are already getting.</t>
+  </si>
+  <si>
+    <t>call a famous writer by name seemed outrageous.</t>
+  </si>
+  <si>
+    <t>Strong focus may be of help with large calculations</t>
+  </si>
+  <si>
+    <t>Embarrassed at his humiliation, the king shot himself.</t>
+  </si>
+  <si>
+    <t>its strange to find bright autumn fruits in late autumn</t>
+  </si>
+  <si>
+    <t>the bright red coloured fruits are clearly visible in late autumn</t>
+  </si>
+  <si>
+    <t>The officials expressed concern about reoccurring longstanding [Mexican] concerns.</t>
+  </si>
+  <si>
+    <t>The officials expressed concern about restarting longstanding [Mexican] concerns.</t>
+  </si>
+  <si>
+    <t>Focusing on the details of policies that aren't working helped to make it better</t>
+  </si>
+  <si>
+    <t>no one can blame honest mechanism to be bad to blame being so snobbish.</t>
+  </si>
+  <si>
+    <t>no one is really responsible, and decisions are made at the mercy of caprice.</t>
+  </si>
+  <si>
+    <t>nobody is in charge of decisions and they are made impulsively</t>
+  </si>
+  <si>
+    <t>She will be placed in respectful list of recipients</t>
+  </si>
+  <si>
+    <t>She will be joining widely known and respected list of recipients</t>
+  </si>
+  <si>
+    <t>some rise by anonymous to publish their own comments.</t>
+  </si>
+  <si>
+    <t>Some honour themselves by anonymously posting their own reviews</t>
+  </si>
+  <si>
+    <t>The [United States] Army developed a comprehensive plan to increase military effectiveness.</t>
+  </si>
+  <si>
+    <t>the [USA] army developed to increase efficiency.</t>
+  </si>
+  <si>
+    <t>[USA] decided to make their army more stronger</t>
+  </si>
+  <si>
+    <t>The [United States] Army developed an extensive plan to increase military effectiveness.</t>
+  </si>
+  <si>
+    <t>The [United States] Army developed a full plan to increase military effectiveness.</t>
+  </si>
+  <si>
+    <t>The actor talked very freely about his childhood difficulties</t>
+  </si>
+  <si>
+    <t>The consequences of bad behaviour destroyed his success.</t>
+  </si>
+  <si>
+    <t>the consequences of bad behaviour [destroyed] success.</t>
+  </si>
+  <si>
+    <t>it is not easy to balance success and good behaviour</t>
+  </si>
+  <si>
+    <t>The result of bad behaviour destroyed his success.</t>
+  </si>
+  <si>
+    <t>His bad behaviour resulted to his failure</t>
+  </si>
+  <si>
+    <t>the asks were made politely</t>
+  </si>
+  <si>
+    <t>The enemy lowered their weapons and called for peace.</t>
+  </si>
+  <si>
+    <t>some characters in the book are very interesting</t>
+  </si>
+  <si>
+    <t>prisoners removed their clothes like everyday  and slept</t>
+  </si>
+  <si>
+    <t>The  vast majority of enterprises treat their employees with empathy.</t>
+  </si>
+  <si>
+    <t>the vast majority of [enterprises] treat their employees with understanding.</t>
+  </si>
+  <si>
+    <t>most of the enterprises has lot of concern for their employees</t>
+  </si>
+  <si>
+    <t>The  vast majority of enterprises treat their employees with care.</t>
+  </si>
+  <si>
+    <t>the chief said that he was removed from the job because he raised concerns about the company's account</t>
+  </si>
+  <si>
+    <t>he wanted the protesters to leave at any cost</t>
+  </si>
+  <si>
+    <t>there are frustration problem, which slows the growth in technology</t>
+  </si>
+  <si>
+    <t>There are frustrating problems slowing the growth of technology.</t>
+  </si>
+  <si>
+    <t>There’s plenty of humour on [Russian] television.</t>
+  </si>
+  <si>
+    <t>There is lot of humour to TV [Russian].</t>
+  </si>
+  <si>
+    <t>Russian television is full of humour</t>
+  </si>
+  <si>
+    <t>[Russian] TV is funny</t>
+  </si>
+  <si>
+    <t>there is a lot of humour on [Russian] television</t>
+  </si>
+  <si>
+    <t>refinement appears in his works it was full of grace</t>
+  </si>
+  <si>
+    <t>This polishing appears in his works, which are full of artistic charm</t>
+  </si>
+  <si>
+    <t>the old and depleted building looked that it would fall anytime</t>
+  </si>
+  <si>
+    <t>sometimes two contradictions may coincide for some argument</t>
+  </si>
+  <si>
+    <t>Two hostile values may stick together in the same object.</t>
+  </si>
+  <si>
+    <t>vacation homes have nice sand and clean water</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +5360,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4701,6 +5393,9 @@
     <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4777,7 +5472,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -4785,7 +5480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$B$3</c:f>
+              <c:f>Results!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4796,7 +5491,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4809,24 +5506,24 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Results!$A$4:$A$8</c15:sqref>
+                    <c15:sqref>Results!$B$4:$B$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Results!$A$5:$A$8</c:f>
+              <c:f>Results!$B$5:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>gunning_fog </c:v>
+                  <c:v>M2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>dale_chall_readability_score </c:v>
+                  <c:v>M3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>flesch_kincaid_grade </c:v>
+                  <c:v>M4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>coleman_liau_index </c:v>
+                  <c:v>M5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4836,11 +5533,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Results!$B$4:$B$8</c15:sqref>
+                    <c15:sqref>Results!$C$4:$C$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Results!$B$5:$B$8</c:f>
+              <c:f>Results!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4870,7 +5567,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$C$3</c:f>
+              <c:f>Results!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4881,7 +5578,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4894,24 +5593,24 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Results!$A$4:$A$8</c15:sqref>
+                    <c15:sqref>Results!$B$4:$B$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Results!$A$5:$A$8</c:f>
+              <c:f>Results!$B$5:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>gunning_fog </c:v>
+                  <c:v>M2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>dale_chall_readability_score </c:v>
+                  <c:v>M3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>flesch_kincaid_grade </c:v>
+                  <c:v>M4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>coleman_liau_index </c:v>
+                  <c:v>M5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4921,11 +5620,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Results!$C$4:$C$8</c15:sqref>
+                    <c15:sqref>Results!$D$4:$D$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Results!$C$5:$C$8</c:f>
+              <c:f>Results!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4968,7 +5667,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4991,7 +5690,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5019,7 +5718,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5050,7 +5749,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5079,6 +5778,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22036997930881008"/>
+          <c:y val="0.83176389329042844"/>
+          <c:w val="0.54482829153271051"/>
+          <c:h val="0.11457253601813705"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5092,7 +5801,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5168,9 +5877,19 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22849197969801432"/>
+          <c:y val="4.540763673890609E-2"/>
+          <c:w val="0.70042562934883545"/>
+          <c:h val="0.70248344343953906"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -5178,7 +5897,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$B$3</c:f>
+              <c:f>Results!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5189,7 +5908,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5199,32 +5920,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Results!$A$4:$A$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Results!$A$4</c:f>
+              <c:f>Results!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>flesch_reading_ease </c:v>
+                  <c:v>M1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Results!$B$4:$B$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Results!$B$4</c:f>
+              <c:f>Results!$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5245,7 +5952,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$C$3</c:f>
+              <c:f>Results!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5256,7 +5963,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5266,32 +5975,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Results!$A$4:$A$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Results!$A$4</c:f>
+              <c:f>Results!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>flesch_reading_ease </c:v>
+                  <c:v>M1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Results!$C$4:$C$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Results!$C$4</c:f>
+              <c:f>Results!$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5325,7 +6020,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5344,11 +6039,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5376,7 +6071,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5407,7 +6102,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5425,6 +6120,7 @@
         <c:crossAx val="498036176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5434,37 +6130,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6603,16 +7268,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6639,16 +7304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6975,7 +7640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B033A66F-ED32-4F12-921B-64E107D1D5EB}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6990,13 +7655,13 @@
         <v>676</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1362</v>
+        <v>1341</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -7004,13 +7669,13 @@
         <v>679</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1050</v>
+        <v>1029</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -7018,13 +7683,13 @@
         <v>682</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1051</v>
+        <v>1030</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1135</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -7032,139 +7697,139 @@
         <v>685</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7183,16 +7848,16 @@
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -7200,251 +7865,251 @@
         <v>319</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>320</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1075</v>
+        <v>1054</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -7491,30 +8156,30 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -7547,128 +8212,128 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -7701,142 +8366,142 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1091</v>
+        <v>1070</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -7855,156 +8520,156 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -8023,72 +8688,72 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -8107,72 +8772,72 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1202</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1203</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1035</v>
+        <v>1014</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1206</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -8191,44 +8856,44 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1208</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1209</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -8247,72 +8912,72 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1214</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -8331,30 +8996,30 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1047</v>
+        <v>1026</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -8373,30 +9038,30 @@
     </row>
     <row r="100" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1133</v>
+        <v>1112</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1218</v>
+        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -8408,8 +9073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8428,31 +9093,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1252</v>
+        <v>1231</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1254</v>
+        <v>1233</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8481,7 +9146,7 @@
         <v>665</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -8510,7 +9175,7 @@
         <v>571</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -8564,7 +9229,7 @@
         <v>667</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1315</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -8618,7 +9283,7 @@
         <v>669</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1316</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -8645,7 +9310,7 @@
         <v>670</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>1317</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -8669,10 +9334,10 @@
         <v>577</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -8699,7 +9364,7 @@
         <v>674</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>1318</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -8728,7 +9393,7 @@
         <v>675</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>1304</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -8752,7 +9417,7 @@
         <v>579</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>579</v>
@@ -8779,10 +9444,10 @@
         <v>580</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -8806,10 +9471,10 @@
         <v>581</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -8835,10 +9500,10 @@
         <v>582</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1321</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -8862,7 +9527,7 @@
         <v>583</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>390</v>
@@ -8889,10 +9554,10 @@
         <v>584</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1322</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -8918,10 +9583,10 @@
         <v>585</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1323</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -8947,10 +9612,10 @@
         <v>586</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1324</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -8974,10 +9639,10 @@
         <v>587</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9001,10 +9666,10 @@
         <v>588</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9028,10 +9693,10 @@
         <v>589</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1326</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -9082,10 +9747,10 @@
         <v>591</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -9111,10 +9776,10 @@
         <v>592</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1327</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -9138,10 +9803,10 @@
         <v>593</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -9167,10 +9832,10 @@
         <v>594</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1224</v>
+        <v>1203</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -9194,10 +9859,10 @@
         <v>595</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1225</v>
+        <v>1204</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9248,10 +9913,10 @@
         <v>597</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1226</v>
+        <v>1205</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -9280,7 +9945,7 @@
         <v>598</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -9304,10 +9969,10 @@
         <v>599</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>1227</v>
+        <v>1206</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -9331,10 +9996,10 @@
         <v>600</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -9358,10 +10023,10 @@
         <v>601</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -9385,10 +10050,10 @@
         <v>602</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1230</v>
+        <v>1209</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1230</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9412,10 +10077,10 @@
         <v>603</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1231</v>
+        <v>1210</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1231</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -9441,10 +10106,10 @@
         <v>604</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1232</v>
+        <v>1211</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -9470,10 +10135,10 @@
         <v>605</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1307</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9524,10 +10189,10 @@
         <v>607</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -9551,10 +10216,10 @@
         <v>608</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9578,10 +10243,10 @@
         <v>609</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>1236</v>
+        <v>1215</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9605,10 +10270,10 @@
         <v>610</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>1237</v>
+        <v>1216</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1237</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9634,10 +10299,10 @@
         <v>611</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>1238</v>
+        <v>1217</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>1308</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -9661,10 +10326,10 @@
         <v>612</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -9688,10 +10353,10 @@
         <v>613</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>1240</v>
+        <v>1219</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1240</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -9715,10 +10380,10 @@
         <v>614</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -9742,10 +10407,10 @@
         <v>615</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>1242</v>
+        <v>1221</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>1242</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -9760,7 +10425,7 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="3" t="s">
-        <v>1244</v>
+        <v>1223</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>519</v>
@@ -9769,10 +10434,10 @@
         <v>616</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -9796,10 +10461,10 @@
         <v>617</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9823,10 +10488,10 @@
         <v>618</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -9850,10 +10515,10 @@
         <v>619</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -9877,10 +10542,10 @@
         <v>620</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>1250</v>
+        <v>1229</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>1250</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9906,10 +10571,10 @@
         <v>621</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -9960,10 +10625,10 @@
         <v>622</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -9987,10 +10652,10 @@
         <v>623</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10014,10 +10679,10 @@
         <v>624</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -10041,10 +10706,10 @@
         <v>625</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -10068,10 +10733,10 @@
         <v>626</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -10095,10 +10760,10 @@
         <v>627</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -10122,10 +10787,10 @@
         <v>628</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -10149,10 +10814,10 @@
         <v>629</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10176,10 +10841,10 @@
         <v>630</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -10203,10 +10868,10 @@
         <v>631</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -10230,10 +10895,10 @@
         <v>632</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -10257,10 +10922,10 @@
         <v>633</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>1268</v>
+        <v>1247</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>1268</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10284,10 +10949,10 @@
         <v>634</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>1269</v>
+        <v>1248</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>1269</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10313,10 +10978,10 @@
         <v>635</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -10369,10 +11034,10 @@
         <v>636</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10396,10 +11061,10 @@
         <v>637</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -10428,7 +11093,7 @@
         <v>446</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10452,10 +11117,10 @@
         <v>639</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -10484,7 +11149,7 @@
         <v>640</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>1311</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -10508,10 +11173,10 @@
         <v>641</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -10562,10 +11227,10 @@
         <v>643</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -10589,10 +11254,10 @@
         <v>644</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>1276</v>
+        <v>1255</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>1276</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10616,10 +11281,10 @@
         <v>645</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>1277</v>
+        <v>1256</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>1277</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -10670,10 +11335,10 @@
         <v>647</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -10702,7 +11367,7 @@
         <v>648</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>1312</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10726,10 +11391,10 @@
         <v>649</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10753,10 +11418,10 @@
         <v>650</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -10809,10 +11474,10 @@
         <v>652</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>1281</v>
+        <v>1260</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -10836,10 +11501,10 @@
         <v>653</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -10865,10 +11530,10 @@
         <v>654</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -10892,10 +11557,10 @@
         <v>655</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -10919,10 +11584,10 @@
         <v>656</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>1285</v>
+        <v>1264</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>1285</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10946,10 +11611,10 @@
         <v>657</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -10973,10 +11638,10 @@
         <v>658</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>1287</v>
+        <v>1266</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>1287</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -10997,7 +11662,7 @@
         <v>564</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>1288</v>
+        <v>1267</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>659</v>
@@ -11027,10 +11692,10 @@
         <v>660</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>1289</v>
+        <v>1268</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>1289</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -11054,10 +11719,10 @@
         <v>661</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -11081,10 +11746,10 @@
         <v>662</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11108,10 +11773,10 @@
         <v>663</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -11132,7 +11797,7 @@
         <v>569</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>664</v>
@@ -11143,58 +11808,58 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1296</v>
+        <v>1275</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>1219</v>
+        <v>1198</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1220</v>
+        <v>1199</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1222</v>
+        <v>1201</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -11207,18 +11872,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484F4E60-8FDE-4806-B268-09D8D8C889F5}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="E100" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="59.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="73" style="1" customWidth="1"/>
+    <col min="6" max="6" width="64.26953125" style="1" customWidth="1"/>
     <col min="7" max="255" width="9.1796875" style="1"/>
     <col min="256" max="256" width="59.26953125" style="1" customWidth="1"/>
     <col min="257" max="258" width="63.1796875" style="1" customWidth="1"/>
@@ -11480,19 +12145,19 @@
         <v>676</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1313</v>
+        <v>1292</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>957</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>1247</v>
+        <v>936</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11500,32 +12165,40 @@
         <v>679</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="7" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>682</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="7" t="s">
+        <v>1349</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -11534,190 +12207,238 @@
       <c r="B4" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="7" t="s">
+        <v>1519</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="7" t="s">
+        <v>1350</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="16" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="7" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1352</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="7" t="s">
+        <v>1353</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="7" t="s">
+        <v>1354</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="7" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="16" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>1524</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>1298</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C14" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="7" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
@@ -11726,366 +12447,458 @@
       <c r="B16" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="16" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>1346</v>
+        <v>1325</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+        <v>1301</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+        <v>1302</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>1526</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+        <v>1303</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+        <v>938</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>1304</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+        <v>1529</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="C23" s="16" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+        <v>942</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>1366</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>743</v>
+        <v>1531</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>1306</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+        <v>1307</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>1368</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+        <v>1308</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+        <v>1309</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>1310</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>1371</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>1284</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>1311</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+        <v>1207</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+        <v>1533</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+        <v>1501</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+        <v>1534</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>776</v>
+        <v>1536</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+        <v>1537</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+        <v>1538</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
@@ -12094,750 +12907,938 @@
       <c r="B39" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="16" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>337</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+        <v>1213</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+        <v>1313</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>792</v>
+        <v>1540</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+        <v>1287</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+        <v>1218</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+        <v>1543</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+        <v>1220</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+        <v>1221</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+        <v>1222</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+        <v>1224</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>1547</v>
+      </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>345</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+        <v>1227</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+        <v>1315</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+        <v>1229</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+        <v>1316</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="C55" s="16" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1236</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+        <v>1551</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+        <v>1552</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>1396</v>
+      </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+        <v>1239</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+        <v>1240</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+        <v>1317</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+        <v>1242</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>1555</v>
+      </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1243</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+        <v>1556</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+        <v>1245</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+        <v>1246</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+        <v>1247</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+        <v>1248</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>862</v>
+        <v>1558</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+        <v>1559</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="C70" s="16" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>868</v>
+        <v>1564</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+        <v>1565</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>1568</v>
+      </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+        <v>637</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+        <v>1318</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>353</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+        <v>1252</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+        <v>1290</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>1410</v>
+      </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+        <v>1253</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>1411</v>
+      </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>884</v>
+        <v>1570</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="C77" s="16" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>1412</v>
+      </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+        <v>1254</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>1413</v>
+      </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1255</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>357</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+        <v>1256</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="C81" s="16" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>1416</v>
+      </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+        <v>1257</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>901</v>
+        <v>1573</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+        <v>1574</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+        <v>1258</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+        <v>1259</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>1420</v>
+      </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
@@ -12846,206 +13847,258 @@
       <c r="B86" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="C86" s="16" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1319</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+        <v>1261</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>1423</v>
+      </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>917</v>
+        <v>1581</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+        <v>1582</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>1585</v>
+      </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>365</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>920</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+        <v>1263</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>1424</v>
+      </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>923</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+        <v>1264</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>1425</v>
+      </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>926</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+        <v>1265</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>929</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+        <v>1266</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="C94" s="16" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+        <v>1268</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>369</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+        <v>1269</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+        <v>1321</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>1431</v>
+      </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+        <v>1271</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
@@ -13054,42 +14107,58 @@
       <c r="B99" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="C99" s="16" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+        <v>1322</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="D101" s="3"/>
+        <v>1323</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>1434</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13098,122 +14167,143 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E5263E-E4D5-4E2C-A74C-8B7370A5C27B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B1" s="15">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1225</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1368</v>
-      </c>
+        <v>1339</v>
+      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1347</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B4" s="13">
+        <v>1331</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C4" s="13">
         <v>60.2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="D4" s="13">
         <v>71.621200000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B5" s="13">
+        <v>1332</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C5" s="13">
         <v>9.6967999999999996</v>
       </c>
-      <c r="C5" s="13">
+      <c r="D5" s="13">
         <v>7.6552999999999898</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B6" s="13">
+        <v>1333</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C6" s="13">
         <v>8.9838000000000005</v>
       </c>
-      <c r="C6" s="13">
+      <c r="D6" s="13">
         <v>7.2777000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B7" s="13">
+        <v>1334</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C7" s="13">
         <v>7.2529999999999903</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>5.4729999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B8" s="13">
+        <v>1335</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C8" s="13">
         <v>11.1653</v>
       </c>
-      <c r="C8" s="13">
+      <c r="D8" s="13">
         <v>8.5363000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B9" s="14">
+        <v>1336</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14">
         <v>8.6389999999999993</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="14">
         <v>6.4169999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B10" s="14">
+        <v>1337</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="14">
         <v>286</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D10" s="14">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B11" s="14">
+        <v>1338</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="14">
         <v>5.2450000000000001</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="14">
         <v>4.45</v>
       </c>
     </row>
